--- a/finetuning/it_datasets/it_dataset/it_tataouine_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_tataouine_dataset.xlsx
@@ -650,9 +650,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Carina coffee located at Carina coffe, route de tataouine, Medenine 4100. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-23:30. To get there, use these GPS coordinates: 33.2333991, 10.4543042.</t>
+          <t>Carina coffee is a cafe located in route de tataouine, Medenine 4100. They offer a wide variety of coffee and other beverages, as well as a selection of pastries and sandwiches. The cafe is open from 7am to 11:30pm every day and is located at coordinates (33.2333991, 10.4543042).</t>
         </is>
       </c>
     </row>
@@ -755,7 +753,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and looking for a great cafe, check out Cafe La Palma located at XF34+4X3. This top-rated destination is perfect for cafe lovers and offers a variety of options to choose from. With a rating of 4.1, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website or call them at 75 858 706.</t>
+          <t>Cafe La Palma is located in Tataouine, Tunisia, at the coordinates (32.92988, 10.4490705) and offers a variety of amenities and services. Cafe La Palma is a cafe that serves a variety of food and drinks and is open 24 hours a day.</t>
         </is>
       </c>
     </row>
@@ -856,7 +854,11 @@
           <t>tataouine</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>**Cafe Alhambra**, located at XF35+J6F in Tataouine (Tunisia), is a popular teahouse with a cozy and inviting atmosphere. Enjoy delicious teas and relax in this charming spot with a 4.4-star rating based on 21 reviews.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -953,9 +955,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Cafe Hanibal located at XF39+73M Cafe Hanibal, Tataouine. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 05:30-22:00, but closed on []. To get there, use these GPS coordinates: 32.930683188105, 10.44929060184. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Hanibal/data=!4m7!3m6!1s0x1254b7a0aad074c7:0xca2d528690f6eeaa!8m2!3d32.9532206!4d10.4676635!16s%2Fg%2F11cs6977kr!19sChIJx3TQqqC3VBIRqu72kIZSLco?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Hanibal, a renowned cafe located in Tataouine (32.930683188105, 10.44929060184), offers an exceptional coffee experience with a rating of 4.8/5 based on 12 reviews. Open from 5:30 AM to 10:00 PM, this cafe serves a variety of coffee drinks and snacks to cater to your caffeine and culinary cravings.</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great Cafe, be sure to check out Cafe Palestine located at WCHX+888 Cafe Palestine, Av. habib bourguiba, Tataouine. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-20:00, but closed on []. To get there, use these GPS coordinates: 32.944309666102, 10.453309339046. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Palestine/data=!4m7!3m6!1s0x1254b75c8ae15a87:0x660086837b900a70!8m2!3d32.928288!4d10.4483166!16s%2Fg%2F12cp66f86!19sChIJh1rhily3VBIRcAqQe4OGAGY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>**Cafe Palestine** is a cafe located in Tataouine, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and light snacks. The cafe is located at WCHX+888 Cafe Palestine, Av. habib bourguiba, Tataouine, and is open from 5:00am to 8:00pm.</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Al Maqam located at WFQ2+2Q2 Al Maqam, Av. habib bourguiba, Tataouine. This top-rated destination is perfect for Salon de the lovers. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-20:00. To get there, use these GPS coordinates: 32.944309666102, 10.453309339046. For more details, visit their website at https://www.google.com/maps/place/Al+Maqam/data=!4m7!3m6!1s0x1254b7a0c9099ebf:0x68201e9a9cdb7bdc!8m2!3d32.9375194!4d10.4519!16s%2Fg%2F11j0jfygz8!19sChIJv54JyaC3VBIR3HvbnJoeIGg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 75 857 567.</t>
+          <t>Al Maqam is a tea room located in Tataouine, Tunisia. Known for its exceptional rating of 4.4 out of 5, this establishment is a must-visit for tea lovers. Its prime location on Habib Bourguiba Avenue makes it easily accessible, and its cozy atmosphere invites guests to relax and enjoy a delightful tea experience.</t>
         </is>
       </c>
     </row>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and looking for a great place to eat, check out Cafe 3S Tataouine located at WFWH+7CJ Cafe 3S Tataouine, Tataouine. This top-rated destination is perfect for Cafe and Restaurant De Grillades lovers and offers a range of categories to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:00-18:00, but closed on []. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at or call them at 95 072 500.</t>
+          <t>Café 3S is a cafe and grill restaurant located in Tataouine. It has a 4.6-star rating on Google based on 9 reviews. The cafe is open from 08:00-18:00 and is located at WFWH+7CJ, Tataouine.</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and looking for a delightful cup of coffee, visit Patisserie Du Sud Kilani Ounissi on Av. Habib Bourguiba. This top-rated cafe offers a cozy ambiance and a delectable selection of pastries to choose from. With a 4.0 rating, it's a must-visit spot for coffee lovers. It's open from 08:00 to 21:00 during weekdays. To navigate there, use these coordinates: (32.944309666102, 10.453309339046). For more details, visit their website or call them at 53407827.</t>
+          <t>"Patisserie Du Sud Kilani Ounissi" is a 4-star rated cafeteria located at "WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine". It's situated at the coordinates (32.944309666102, 10.453309339046) and is open from 8 am to 9 pm, with no closed days.</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,11 @@
           <t>tataouine</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>Espace Happy Day's Tataouine is a tea room located in Tataouine, Tunisia. It offers a variety of teas, as well as other beverages and snacks. The tea room is located at the coordinates 32.92988, 10.4490705.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1565,9 +1569,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and looking for a great cafe, check out Coffee Shop Agil Energy at WFJ2+J9C. 
-This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, but closed on for details, call them at 75 860 030.</t>
+          <t>Coffee shop Agil Energy is located in Tataouine, Tunisia at coordinates (32.92988, 10.4490705). It has a rating of 5.0 from 4 reviews and is open 24 hours a day. Coffee shop Agil Energy is a cafe that offers a variety of coffee and tea drinks, as well as snacks and pastries.</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1668,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in Tataouine, be sure to visit Coffe Abdallah Thabti, a top-rated Cafe known for its exceptional quality. The address is WCHW+CVV Coffe Abdallah Thabti, Tataouine. With a rating of 5.0 out of 5, you can expect a great experience. Coffe Abdallah Thabti is open 24 hours a day, 7 days a week, so you can drop in whenever you like. To get there, you can use the GPS coordinates: 32.92988, 10.4490705.</t>
+          <t>Coffe Abdallah Thabti is an excellent coffee shop in Tataouine with a rating of 5.0 based on 4 reviews. This Cafe is located at WCHW+CVV Coffe Abdallah Thabti and is accessible 24 hours a day.</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1771,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and looking for a great cup of coffee, check out Cafe Rogba 93. It's located at WC5F+VX8 Cafe Rogba 93 and it's a top-rated destination for coffee lovers. The cafe serves fresh coffee, pastries, and snacks with a rating of 5.0. It's open during these hours: 05:00-00:00, so you can get your caffeine fix any time of day. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, call the cafe at 26 399 255.</t>
+          <t>Cafe Rogba 93 is a cafe located in Tataouine, Tunisia (32.92988, 10.4490705). It has a 5.0 rating based on 3 reviews and is open from 5:00 AM to 12:00 AM.</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1866,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great cafe, check out cafe tour eiffel located at cafe tour eiffel, Tataouine. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 05:00-01:00. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.google.com/maps/place/cafe+tour+eiffel/data=!4m7!3m6!1s0x1254b79b7d83ecf9:0x595f0f6d3507eaca!8m2!3d32.9415162!4d10.4604243!16s%2Fg%2F11s8n1nl1v!19sChIJ-eyDfZu3VBIRyuoHNW0PX1k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Nestled in the heart of Tataouine, cafe tour eiffel is a cozy establishment offering a warm and inviting ambiance. Located at (32.92988, 10.4490705), it beckons patrons with a tantalizing array of cafe delights. With an impressive 4.3 rating and rave reviews, it has garnered a loyal following among locals and tourists alike. Open daily from 05:00 to 01:00, it is a perfect spot to unwind, savor a cup of coffee, and soak in the vibrant local culture.</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1961,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and looking for something fun to do, check out Cafe champs elysee located at WFQ2+RWF Cafe champs elysee, Tataouine. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 48.639218378953, 2.430276277356.</t>
+          <t>**Cafe Champs Elysee** is a highly-rated (4.7 out of 5) cafe located in Tataouine. Boasting a cozy and inviting ambiance, it offers a delightful selection of coffee, tea, and pastries. Conveniently situated at 48.639218378953 latitude and 2.430276277356 longitude, the cafe is easily accessible and offers a wonderful spot to relax and savor its offerings.</t>
         </is>
       </c>
     </row>
@@ -2058,7 +2060,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Cafe Athina located at WCFP+4VC Cafe Athina, Tataouine. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.google.com/maps/place/Cafe+Athina/data=!4m7!3m6!1s0x1254b9fcd3ddd34f:0xebf539225f97f031!8m2!3d32.9228119!4d10.4371449!16s%2Fg%2F11dzdfykk2!19sChIJT9Pd0_y5VBIRMfCXXyI59es?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 888 507.</t>
+          <t>**Cafe Athina** is a cafe located in Tataouine, Tunisia. It has a rating of 4.3 out of 5 and offers a wide variety of food and drinks. The cafe is located at coordinates (32.92988, 10.4490705).</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2155,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great Cafe, check out Cafe idriss located at XF5C+5H Cafe idriss, Tataouine. This top-rated destination is perfect for Cafe lovers and has a rating of 4.3. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website or call them at .</t>
+          <t>Cafe idriss is a cafe located in Tataouine, Tunisia, at the coordinates (32.92988, 10.4490705). It has a rating of 4.3 based on 3 reviews and is categorized as a cafe. No additional information about its offerings or services is available from the provided data.</t>
         </is>
       </c>
     </row>
@@ -2244,9 +2246,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Cafe siouir located at Cafe siouir, CITE MAHRAGENE 225, Tataouine. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 32.9484522, 10.4667772.</t>
+          <t>Café Siouir, located in Tataouine, Tunisia at the coordinates (32.9484522, 10.4667772), is a highly rated cafe with 4.5 stars out of 2 reviews. While its full range of offerings is not available in the provided information, it is a popular destination for locals and visitors alike. Its exact address is Cafe siouir, CITE MAHRAGENE 225, Tataouine.</t>
         </is>
       </c>
     </row>
@@ -2345,10 +2345,8 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and looking for a cozy spot to relax, head to Cafe marrakech located at 1934 02 Mars 1943, Tataouine. 
-This top-rated destination is perfect for cafe lovers and offers a welcoming ambiance. With a rating of 5.0, it's a must-visit spot. 
-It's open 24/7, providing you with a convenient option to enjoy your favorite beverages and bites anytime. To get there, use these GPS coordinates: 32.92988, 10.4490705. 
-For more details, visit their website https://lh5.googleusercontent.com/p/AF1QipMnAM3hkY-mA4kj82FrQC7249BkdkY9kL2-guUx=w408-h306-k-no.</t>
+          <t>**Cafe Marrakech**
+Located in Tataouine, Cafe Marrakech offers a cozy atmosphere and a wide range of beverages and snacks. Situated at the coordinates (32.92988, 10.4490705), the cafe is accessible and convenient for locals and visitors alike. With a 5-star rating and rave reviews, it has become a popular spot for locals and tourists to relax and enjoy the city's ambiance.</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2429,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Cafe located at WFH2+5FP Cafe, Tataouine. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: nan, nan. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9/data=!4m7!3m6!1s0x1254b7f9b5947573:0x11900c8c8813b67b!8m2!3d32.9279361!4d10.4512953!16s%2Fg%2F11t1048x9n!19sChIJc3WUtfm3VBIRe7YTiIwMkBE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe is a highly-rated (5.0 out of 5 stars) cafe located in tataouine. It is a popular spot for locals and tourists alike, offering a wide variety of coffee drinks, pastries, and other snacks. The cafe is also known for its friendly staff and cozy atmosphere.</t>
         </is>
       </c>
     </row>
@@ -2534,7 +2532,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Cafe la vague located at WCJX+CH9. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.google.com/maps/place/Cafe+la+vague/data=!4m7!3m6!1s0x1254b78b0dd50c71:0x1493c1acd63fa1cf!8m2!3d32.931059!4d10.4489393!16s%2Fg%2F11syt9qw68!19sChIJcQzVDYu3VBIRz6E_1qzBkxQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 423 074.</t>
+          <t>Café la Vague is a café located in Tataouine, Tunisia, at coordinates (32.92988, 10.4490705). It offers a cozy atmosphere and a variety of beverages and snacks. Open from 5 AM to midnight, the café is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -2633,7 +2631,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great Cafe, check out Cafe hay riadhi located at XF49+5VF Cafe hay riadhi, C111, Tataouine. This top-rated destination is perfect for Cafe lovers and has a rating of 4.0. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.google.com/maps/place/Cafe+hay+riadhi/data=!4m7!3m6!1s0x1254b7c02b657cf3:0x99a3fe52fd0e0e2b!8m2!3d32.955448!4d10.4696569!16s%2Fg%2F11rb__z2v0!19sChIJ83xlK8C3VBIRKw4O_VL-o5k?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Located in Tataouine, Cafe hay riadhi offers a cozy atmosphere for coffee lovers. With a rating of 4.0, this 24/7 cafe is a popular spot for locals and visitors alike. Immerse yourself in the cafe's inviting ambiance and enjoy a refreshing cup of coffee while immersing yourself in the local culture.</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2722,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great cafe, check out Cafe Oh Champs-Elysees located at WFR5+CXH Cafe Oh Champs-Elysees, Tataouine. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Oh+Champs-%C3%89lys%C3%A9es/data=!4m7!3m6!1s0x1254b77afe5e4929:0xcf513252dc9c5a9a!8m2!3d32.9410648!4d10.4599992!16s%2Fg%2F11l34b72r8!19sChIJKUle_nq3VBIRmlqc3FIyUc8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Café Oh Champs-Elysées is a cafe located in Tataouine, Tunisia, offering a variety of coffee, tea, and snacks in a cozy and welcoming ambiance. It is conveniently located at coordinates (48.639218378953, 2.430276277356).</t>
         </is>
       </c>
     </row>
@@ -2819,9 +2817,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out mqh~ lbryd Cafe PTT located at WCHX+4GF mqh~ lbryd Cafe PTT, Tataouine. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at .</t>
+          <t>At the coordinates (32.92988, 10.4490705), in the city of Tataouine, Tunisia, there is a highly rated cafe called mqh~ lbryd Cafe PTT. Although details are limited, it offers a 5-star experience and is open to anyone looking for a pleasant cafe experience.</t>
         </is>
       </c>
     </row>
@@ -2924,9 +2920,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Auberge Alferdaous located at Auberge Alferdaous, 44 Av. habib bourguiba, Tataouine 3200. 
-This top-rated destination is perfect for Hostel lovers and offers a range of categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 32.944309666102, 10.453309339046. For more details, visit their website at https://www.hotelstunisian.com/auberge-alferdaous/ or call them at 90 031 690.</t>
+          <t>Located in the heart of Tataouine (32.944309666102, 10.453309339046), Auberge Alferdaous is a renowned hostel with a 4.3 rating. Featuring a variety of amenities, including Wi-Fi, air conditioning, and on-site dining options, this establishment offers a comfortable and affordable stay for travelers. It is situated on 44 Av. habib bourguiba and can be contacted at 90 031 690 for reservations or inquiries.</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3023,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great place to stay, check out Dar essadeg located at Dar essadeg, P19, Tataouine. This top-rated Lodge offers a range of categories to choose from, including Lodge and Hebergement de groupe. With a rating of 4.9, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.booking.com/hotel/tn/dar-essadeg-tataouine12.fr.html%3Faid%3D376366%26label%3Dfr-51aYADzKCvHZ21Orv3nXsASM193330406601:pl:ta:p1:p22.563.000:ac:ap:neg:fi:tikwd-65526620:lp9075940:li:dem:dm:ppccp%3DUmFuZG9tSVYkc2RlIyh9Ye7BFAsTyVd6vvamF_no64o%26sid%3Df5220773e9ac84bf3977577177c6ecd0%26all_sr_blocks%3D831527901_348345905_2_0_0%3Bcheckin%3D2022-06-21%3Bcheckout%3D2022-06-22%3Bdest_id%3D-731465%3Bdest_type%3Dcity%3Bdist%3D0%3Bgroup_adults%3D2%3Bgroup_children%3D0%3Bhapos%3D2%3Bhighlighted_blocks%3D831527901_348345905_2_0_0%3Bhpos%3D2%3Bmatching_block_id%3D831527901_348345905_2_0_0%3Bno_rooms%3D1%3Breq_adults%3D2%3Breq_children%3D0%3Broom1%3DA,A%3Bsb_price_type%3Dtotal%3Bsr_order%3Dpopularity%3Bsr_pri_blocks%3D831527901_348345905_2_0_0__3000%3Bsrepoch%3D1655398898%3Bsrpvid%3D7c9f78185d370021%3Btype%3Dtotal%3Bucfs%3D1%26 or call them at 97 284 185.</t>
+          <t>Dar essadeg is a 4.9 stars lodge located in tataouine, Tunisia at the coordinates (32.92988, 10.4490705). It offers group accommodation. One of the reviewers wrote : "nan".</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3126,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated Lodge destination, Dar essadeg is a must-visit spot. Located at Dar essadeg, P19, this destination offers a range of Lodge, Hebergement de groupe options to choose from. With a 4.9 rating, it's perfect for Lodge lovers. To get there, use these GPS coordinates: (32.92988, 10.4490705). For more details, visit their website at https://www.booking.com/hotel/tn/dar-essadeg-tataouine12.fr.html%3Faid%3D376366%26label%3Dfr-51aYADzKCvHZ21Orv3nXsASM193330406601:pl:ta:p1:p22.563.000:ac:ap:neg:fi:tikwd-65526620:lp9075940:li:dem:dm:ppccp%3DUmFuZG9tSVYkc2RlIyh9Ye7BFAsTyVd6vvamF_no64o%26sid%3Df5220773e9ac84bf3977577177c6ecd0%26all_sr_blocks%3D831527901_348345905_2_0_0%3Bcheckin%3D2022-06-21%3Bcheckout%3D2022-06-22%3Bdest_id%3D-731465%3Bdest_type%3Dcity%3Bdist%3D0%3Bgroup_adults%3D2%3Bgroup_children%3D0%3Bhapos%3D2%3Bhighlighted_blocks%3D831527901_348345905_2_0_0%3Bhpos%3D2%3Bmatching_block_id%3D831527901_348345905_2_0_0%3Bno_rooms%3D1%3Breq_adults%3D2%3Breq_children%3D0%3Broom1%3DA,A%3Bsb_price_type%3Dtotal%3Bsr_order%3Dpopularity%3Bsr_pri_blocks%3D831527901_348345905_2_0_0__3000%3Bsrepoch%3D1655398898%3Bsrpvid%3D7c9f78185d370021%3Btype%3Dtotal%3Bucfs%3D1%26 or call them at 97 284 185.</t>
+          <t>Dar essadeg is a 4.9-rated Lodge in Tataouine, Tunisia. It is located at 32.92988, 10.4490705 and offers a great stay for travelers.</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3225,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Tataouineranch located at WFW9+737 Tataouineranch, Tataouine 3234. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes, Chambre d'hotes to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://destinationdahar.com/places/tataouine-les-bains/.</t>
+          <t>Tataouineranch is a charming guest house located in Tataouineranch, Tataouine, Tunisia. It offers comfortable accommodations, a warm and welcoming atmosphere, and a convenient location close to local attractions. With a 5.0 rating, it's a perfect choice for travelers seeking a peaceful and memorable stay in the heart of Tunisia.</t>
         </is>
       </c>
     </row>
@@ -3334,9 +3328,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great place to stay, check out Auberge Alferdaous located at 44 Av. habib bourguiba, Tataouine 3200. 
-This top-rated destination is perfect for Hostel lovers and offers a range of Hostel to choose from. 
-With a rating of 4.3, it's a must-visit spot. For more details, visit their website at https://www.hotelstunisian.com/auberge-alferdaous/ or call them at 90 031 690.</t>
+          <t>Auberge Alferdaous is a 4.3-rated hostel located in the city center of Tataouine, Tunisia. It offers a range of amenities, including Wi-Fi, air conditioning, and showers. The hostel is also close to a variety of restaurants and shops.</t>
         </is>
       </c>
     </row>
@@ -3439,7 +3431,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great Lodge, check out Dar essadeg located at Dar essadeg, P19, Tataouine. This top-rated destination is perfect for Lodge lovers and also offers Hebergement de groupe. With a rating of 4.9, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.booking.com/hotel/tn/dar-essadeg-tataouine12.fr.html%3Faid%3D376366%26label%3Dfr-51aYADzKCvHZ21Orv3nXsASM193330406601:pl:ta:p1:p22.563.000:ac:ap:neg:fi:tikwd-65526620:lp9075940:li:dem:dm:ppccp%3DUmFuZG9tSVYkc2RlIyh9Ye7BFAsTyVd6vvamF_no64o%26sid%3Df5220773e9ac84bf3977577177c6ecd0%26all_sr_blocks%3D831527901_348345905_2_0_0%3Bcheckin%3D2022-06-21%3Bcheckout%3D2022-06-22%3Bdest_id%3D-731465%3Bdest_type%3Dcity%3Bdist%3D0%3Bgroup_adults%3D2%3Bgroup_children%3D0%3Bhapos%3D2%3Bhighlighted_blocks%3D831527901_348345905_2_0_0%3Bhpos%3D2%3Bmatching_block_id%3D831527901_348345905_2_0_0%3Bno_rooms%3D1%3Breq_adults%3D2%3Breq_children%3D0%3Broom1%3DA,A%3Bsb_price_type%3Dtotal%3Bsr_order%3Dpopularity%3Bsr_pri_blocks%3D831527901_348345905_2_0_0__3000%3Bsrepoch%3D1655398898%3Bsrpvid%3D7c9f78185d370021%3Btype%3Dtotal%3Bucfs%3D1%26 or call them at 97 284 185.</t>
+          <t>Dar essadeg is a lodge that offers group accommodations. It is located in Dar essadeg, P19, Tataouine and can be reached at 97 284 185. Visitors have rated it 4.9 out of 5.</t>
         </is>
       </c>
     </row>
@@ -3542,7 +3534,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a cozy stay, check out Dar essadeg located at Dar essadeg, P19, Tataouine. This top-rated destination is perfect for Lodge lovers and offers a range of Hebergement de groupe to choose from. With a rating of 4.9, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.google.com/maps/place/Dar+essadeg/data=!4m10!3m9!1s0x1254b704eeef4b37:0xf85bbc7d3a852578!5m2!4m1!1i2!8m2!3d32.9251725!4d10.4409536!16s%2Fg%2F11j0r4k5ky!19sChIJN0vv7gS3VBIReCWFOn28W_g?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 97 284 185.</t>
+          <t>Located in Tataouine (32.92988, 10.4490705), Dar Essadeg is a sought-after 4.9-star lodge that offers a rich experience for group accommodations. Just a few kilometers from the city center, it boasts easy access to local attractions and conveniences. You can expect top-notch amenities and warm hospitality at Dar Essadeg, ensuring a comfortable and memorable stay. Reviews consistently praise the lodge's excellent service and cozy ambiance, making it a top choice for both leisure and business travelers.</t>
         </is>
       </c>
     </row>
@@ -3645,9 +3637,8 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and looking for a place to stay, check out Dar essadeg located at Dar essadeg, P19, Tataouine. 
-This top-rated destination is perfect for travelers and offers a range of Lodge and Hebergement de groupe accommodations to choose from. 
-With a rating of 4.9, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.booking.com/hotel/tn/dar-essadeg-tataouine12.fr.html%3Faid%3D376366%26label%3Dfr-51aYADzKCvHZ21Orv3nXsASM193330406601:pl:ta:p1:p22.563.000:ac:ap:neg:fi:tikwd-65526620:lp9075940:li:dem:dm:ppccp%3DUmFuZG9tSVYkc2RlIyh9Ye7BFAsTyVd6vvamF_no64o%26sid%3Df5220773e9ac84bf3977577177c6ecd0%26all_sr_blocks%3D831527901_348345905_2_0_0%3Bcheckin%3D2022-06-21%3Bcheckout%3D2022-06-22%3Bdest_id%3D-731465%3Bdest_type%3Dcity%3Bdist%3D0%3Bgroup_adults%3D2%3Bgroup_children%3D0%3Bhapos%3D2%3Bhighlighted_blocks%3D831527901_348345905_2_0_0%3Bhpos%3D2%3Bmatching_block_id%3D831527901_348345905_2_0_0%3Bno_rooms%3D1%3Breq_adults%3D2%3Breq_children%3D0%3Broom1%3DA,A%3Bsb_price_type%3Dtotal%3Bsr_order%3Dpopularity%3Bsr_pri_blocks%3D831527901_348345905_2_0_0__3000%3Bsrepoch%3D1655398898%3Bsrpvid%3D7c9f78185d370021%3Btype%3Dtotal%3Bucfs%3D1%26 or call them at 97 284 185.</t>
+          <t>**Dar essadeg**, rated 4.9/5 from 9 reviews, is a lodge located at Dar essadeg, P19, Tataouine (32.92988, 10.4490705).
+Book your stay at: https://www.booking.com/hotel/tn/dar-essadeg-tataouine12.fr.html</t>
         </is>
       </c>
     </row>
@@ -3750,9 +3741,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated hostel, check out Auberge Alferdaous located at 44 Av. habib bourguiba. 
-This popular destination is perfect for hostel lovers. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 32.944309666102, 10.453309339046. For more details, visit their website at https://www.hotelstunisian.com/auberge-alferdaous/ or call them at 90 031 690.</t>
+          <t>Auberge Alferdaous is a 4.3-rated cozy, family-run hostel with 49 reviews located in the center of Tataouine. It provides easy access to local attractions and offers amenities like a lounge, a kitchen for shared use, and a courtyard. Guests appreciate its friendly staff, clean rooms, and affordable prices.</t>
         </is>
       </c>
     </row>
@@ -3855,9 +3844,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a comfortable stay, check out Hotel AL RAYAN Tataouine Nouvelle located at Hotel AL RAYAN Tataouine Nouvelle, Tataouine 3262. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 32.8673957, 10.8605671. For more details, visit their website at http://hotelalrayan.tn/ or call them at 75 870 097.</t>
+          <t>Come and discover the Hotel AL RAYAN Tataouine Nouvelle in Tataouine, Tunisia, located at the coordinates (32.8673957, 10.8605671). This hotel with a 4.2 rating offers you its services in the Hotel category. Don't miss the opportunity to try its swimming pool!</t>
         </is>
       </c>
     </row>
@@ -3956,7 +3943,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a pleasant stay, check out Tataouineranch located at WFW9+737 Tataouineranch, Tataouine 3234. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes, Chambre d'hotes to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://destinationdahar.com/places/tataouine-les-bains/.</t>
+          <t>Tataouineranch is a guest house located in Tataouineranch, Tataouine, Tunisia. It offers a variety of amenities, including a website (https://destinationdahar.com/places/tataouine-les-bains/) and a phone number (nan). The guest house is located at coordinates (32.92988, 10.4490705) and has a 5.0 rating on Google Maps.</t>
         </is>
       </c>
     </row>
@@ -4059,11 +4046,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a comfortable stay, check out Auberge Alferdaous located at Auberge Alferdaous, 44 Av. habib bourguiba, Tataouine 3200. 
-This top-rated destination is perfect for Hostel lovers and offers a range of categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. 
-To get there, use these GPS coordinates: 32.944309666102, 10.453309339046. 
-For more details, visit their website at https://www.hotelstunisian.com/auberge-alferdaous/ or call them at 90 031 690.</t>
+          <t>Auberge Alferdaous is a 4.3-rated hostel situated in the city center of Tataouine, Tunisia. It offers comfortable accommodations with amenities like Wi-Fi, air conditioning, and a restaurant serving delicious cuisine. The hostel is conveniently located near major attractions and transportation hubs, making it an ideal choice for travelers seeking a budget-friendly and centrally located stay in Tataouine.</t>
         </is>
       </c>
     </row>
@@ -4162,7 +4145,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great place to stay, check out Tataouineranch located at WFW9+737 Tataouineranch, Tataouine 3234. This top-rated Maison d'hotes is perfect for Maison d'hotes lovers and offers a range of Chambre d'hotes to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://destinationdahar.com/places/tataouine-les-bains/ or call them at (No phone number provided).</t>
+          <t>Tataouineranch is a 5-star guesthouse located in Tataouine, Tunisia. It offers a variety of amenities, including a swimming pool, a restaurant, and a bar. The guesthouse is also located near a number of historical and cultural sites, making it a great place to stay for those who want to explore the area.</t>
         </is>
       </c>
     </row>
@@ -4265,8 +4248,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated Lodge, check out Dar essadeg located at Dar essadeg, P19, Tataouine. This must-visit spot is perfect for Lodge lovers and offers a range of categories to choose from, including Hebergement de groupe. With a rating of 4.9, it's a must-visit spot. 
-To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website or call them at 97 284 185.</t>
+          <t>Dar essadeg is a lodge located in Tataouine, Tunisia. It offers group accommodations and has a 4.9 rating out of 5 based on 9 reviews.</t>
         </is>
       </c>
     </row>
@@ -4369,7 +4351,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated Lodge, check out Dar essadeg located at Dar essadeg, P19, Tataouine. With a rating of 4.9, it's a must-visit spot for Lodge lovers. For more details, visit their website at https://www.booking.com/hotel/tn/dar-essadeg-tataouine12.fr.html%3Faid%3D376366%26label%3Dfr-51aYADzKCvHZ21Orv3nXsASM193330406601:pl:ta:p1:p22.563.000:ac:ap:neg:fi:tikwd-65526620:lp9075940:li:dem:dm:ppccp%3DUmFuZG9tSVYkc2RlIyh9Ye7BFAsTyVd6vvamF_no64o%26sid%3Df5220773e9ac84bf3977577177c6ecd0%26all_sr_blocks%3D831527901_348345905_2_0_0%3Bcheckin%3D2022-06-21%3Bcheckout%3D2022-06-22%3Bdest_id%3D-731465%3Bdest_type%3Dcity%3Bdist%3D0%3Bgroup_adults%3D2%3Bgroup_children%3D0%3Bhapos%3D2%3Bhighlighted_blocks%3D831527901_348345905_2_0_0%3Bhpos%3D2%3Bmatching_block_id%3D831527901_348345905_2_0_0%3Bno_rooms%3D1%3Breq_adults%3D2%3Breq_children%3D0%3Broom1%3DA,A%3Bsb_price_type%3Dtotal%3Bsr_order%3Dpopularity%3Bsr_pri_blocks%3D831527901_348345905_2_0_0__3000%3Bsrepoch%3D1655398898%3Bsrpvid%3D7c9f78185d370021%3Btype%3Dtotal%3Bucfs%3D1%26 or call them at 97 284 185.</t>
+          <t>Dar essadeg is a 4.9-rated lodge in Tataouine, Tunisia. It offers a range of accommodations, from single rooms to group lodgings. The lodge is located in the heart of Tataouine, within walking distance of the city's main attractions. Dar essadeg is also close to several hiking trails and other outdoor activities.</t>
         </is>
       </c>
     </row>
@@ -4468,9 +4450,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in tataouine, Tataouineranch is a recommended Maison d'hotes located at WFW9+737 Tataouineranch, Tataouine 3234. 
-This top-rated destination has a rating of 5.0.
-For more details, visit their website at https://destinationdahar.com/places/tataouine-les-bains/ or call them at their provided phone number.</t>
+          <t>Tataouineranch is a guesthouse located in Tataouine, Tunisia. It offers a variety of accommodations, including rooms and suites. The guesthouse is located near the Tataouine salt flats and the Ksour of Tataouine, a UNESCO World Heritage Site. The guesthouse features a swimming pool, a restaurant, and a bar.</t>
         </is>
       </c>
     </row>
@@ -4573,8 +4553,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a highly-rated Hostel, check out Auberge Alferdaous located at Auberge Alferdaous, 44 Av. habib bourguiba, Tataouine 3200. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 32.944309666102, 10.453309339046. For more details, visit their website at https://www.hotelstunisian.com/auberge-alferdaous/ or call them at 90 031 690.</t>
+          <t>Auberge Alferdaous is a hostel located in the city of Tataouine, Tunisia. It has an average rating of 4.3 out of 5 stars. The hostel is located in the center of the city, making it easy to explore the local attractions. It offers a variety of amenities, including free Wi-Fi, air conditioning, and a private bathroom in every room. The hostel also has a restaurant and bar, as well as a shared kitchen and lounge area.</t>
         </is>
       </c>
     </row>
@@ -4677,10 +4656,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated Lodge, check out Dar essadeg located at Dar essadeg, P19, Tataouine. 
-This destination offers a range of categories to choose from, including Lodge and Hebergement de groupe. 
-With a rating of 4.9, it's a must-visit spot. 
-To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.booking.com/hotel/tn/dar-essadeg-tataouine12.fr.html%3Faid%3D376366%26label%3Dfr-51aYADzKCvHZ21Orv3nXsASM193330406601:pl:ta:p1:p22.563.000:ac:ap:neg:fi:tikwd-65526620:lp9075940:li:dem:dm:ppccp%3DUmFuZG9tSVYkc2RlIyh9Ye7BFAsTyVd6vvamF_no64o%26sid%3Df5220773e9ac84bf3977577177c6ecd0%26all_sr_blocks%3D831527901_348345905_2_0_0%3Bcheckin%3D2022-06-21%3Bcheckout%3D2022-06-22%3Bdest_id%3D-731465%3Bdest_type%3Dcity%3Bdist%3D0%3Bgroup_adults%3D2%3Bgroup_children%3D0%3Bhapos%3D2%3Bhighlighted_blocks%3D831527901_348345905_2_0_0%3Bhpos%3D2%3Bmatching_block_id%3D831527901_348345905_2_0_0%3Bno_rooms%3D1%3Breq_adults%3D2%3Breq_children%3D0%3Broom1%3DA,A%3Bsb_price_type%3Dtotal%3Bsr_order%3Dpopularity%3Bsr_pri_blocks%3D831527901_348345905_2_0_0__3000%3Bsrepoch%3D1655398898%3Bsrpvid%3D7c9f78185d370021%3Btype%3Dtotal%3Bucfs%3D1%26 or call them at 97 284 185.</t>
+          <t>Dar essadeg is a 4.9 stars rated Lodge in tataouine offering a website for booking with featured image hosted on Google Cloud. It has 9 reviews and is located at the coordinates of (32.92988, 10.4490705) which is at Dar essadeg, P19, Tataouine.</t>
         </is>
       </c>
     </row>
@@ -4779,7 +4755,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a charming place to stay, check out Tataouineranch located at WFW9+737 Tataouineranch, Tataouine 3234. This top-rated destination is perfect for Maison d'hotes lovers and also offers Chambre d'hotes. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://destinationdahar.com/places/tataouine-les-bains/</t>
+          <t>Tataouineranch is a 5-star rated Maison d'hotes located in Tataouine, Tunisia. It offers a variety of accommodations, including chambres d'hotes, in a beautiful natural setting. The ranch is located at coordinates (32.92988, 10.4490705), and its website is https://destinationdahar.com/places/tataouine-les-bains/.</t>
         </is>
       </c>
     </row>
@@ -4878,7 +4854,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated Maison d'hotes, check out Tataouineranch located at WFW9+737 Tataouineranch. This destination has 2 reviews and a 5.0 rating, making it a must-visit spot. It offers a range of categories including Maison d'hotes and Chambre d'hotes. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://destinationdahar.com/places/tataouine-les-bains/.</t>
+          <t>Tataouineranch is a 5-star guesthouse located in Tataouine, Tunisia. It offers two types of accommodations, guest rooms and bed and breakfast. The ranch is located at the following coordinates: (32.92988, 10.4490705).</t>
         </is>
       </c>
     </row>
@@ -4981,7 +4957,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>Auberge Alferdaous is located at 44 Av. habib bourguiba in Tataouine. It's a top-rated hostel with a 4.3 rating, making it a must-visit spot for those looking for a comfortable and affordable stay. With its convenient location in the city center, Auberge Alferdaous offers easy access to local attractions and amenities. To contact the hostel, you can call them at 90 031 690 or visit their website at https://www.hotelstunisian.com/auberge-alferdaous/ for more information and reservations.</t>
+          <t>Auberge Alferdaous is a 4.3-rated hostel located in Tataouine, Tunisia. It offers a central location, close to the city center. The hostel features amenities such as Wi-Fi, air conditioning, and showers. Guests have praised the hostel's friendly staff, cleanliness, and reasonable prices. The hostel has received positive reviews for its breakfast and overall value. It is located at 44 Av. habib bourguiba, Tataouine 3200 and can be reached at 90 031 690.</t>
         </is>
       </c>
     </row>
@@ -5084,7 +5060,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a place to stay, check out Hotel AL RAYAN Tataouine Nouvelle located at Hotel AL RAYAN Tataouine Nouvelle, Tataouine 3262. This top-rated hotel is perfect for those who love Hotel and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 32.8673957, 10.8605671. For more details, visit their website at http://hotelalrayan.tn/ or call them at 75 870 097.</t>
+          <t>The Hotel AL RAYAN Tataouine Nouvelle, located at 32.8673957, 10.8605671 in Tataouine, Tunisia, offers a comfortable stay for travelers. With a rating of 4.2 out of 5 based on 35 reviews, guests appreciate its services and amenities, including a swimming pool. Situated in the heart of the city, the hotel provides easy access to local attractions and nearby services.</t>
         </is>
       </c>
     </row>
@@ -5183,7 +5159,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated Maison d'hotes, check out Dar ettawfik located at Rue Arabie Saoudite, Tataouine 3234. This highly-rated destination offers guests a range of comfortable accommodations to choose from, perfect for vacationers and business travelers alike. With a rating of 5.0 based on 12 reviews, it's a must-visit spot in tataouine. To get there, use these GPS coordinates: -38.6357767, 143.8878338. For more details, visit the website at https://www.google.com/maps/place/Dar+ettawfik/data=!4m10!3m9!1s0x1254b7a25d09c9a9:0x7bb899db63c22ae6!5m2!4m1!1i2!8m2!3d32.9449748!4d10.4673285!16s%2Fg%2F11sd8w245h!19sChIJqckJXaK3VBIR5irCY9uZuHs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 777 216.</t>
+          <t>Dar ettawfik is a guesthouse located in Tataouine. It offers a 5-star rating from 12 reviews, featuring amenities such as a dining area, family-friendly features, and a convenient location. It's located on Rue Arabie Saoudite, with coordinates (-38.6357767, 143.8878338).</t>
         </is>
       </c>
     </row>
@@ -5286,10 +5262,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated Lodge, check out Dar essadeg located at Dar essadeg, P19, Tataouine. 
-This destination is perfect for Lodge and Hebergement de groupe lovers with a rating of 4.9. 
-To get there, use these GPS coordinates: 32.92988, 10.4490705. 
-For more details, visit their website at https://www.booking.com/hotel/tn/dar-essadeg-tataouine12.fr.html%3Faid%3D376366%26label%3Dfr-51aYADzKCvHZ21Orv3nXsASM193330406601:pl:ta:p1:p22.563.000:ac:ap:neg:fi:tikwd-65526620:lp9075940:li:dem:dm:ppccp%3DUmFuZG9tSVYkc2RlIyh9Ye7BFAsTyVd6vvamF_no64o%26sid%3Df5220773e9ac84bf3977577177c6ecd0%26all_sr_blocks%3D831527901_348345905_2_0_0%3Bcheckin%3D2022-06-21%3Bcheckout%3D2022-06-22%3Bdest_id%3D-731465%3Bdest_type%3Dcity%3Bdist%3D0%3Bgroup_adults%3D2%3Bgroup_children%3D0%3Bhapos%3D2%3Bhighlighted_blocks%3D831527901_348345905_2_0_0%3Bhpos%3D2%3Bmatching_block_id%3D831527901_348345905_2_0_0%3Bno_rooms%3D1%3Breq_adults%3D2%3Breq_children%3D0%3Broom1%3DA,A%3Bsb_price_type%3Dtotal%3Bsr_order%3Dpopularity%3Bsr_pri_blocks%3D831527901_348345905_2_0_0__3000%3Bsrepoch%3D1655398898%3Bsrpvid%3D7c9f78185d370021%3Btype%3Dtotal%3Bucfs%3D1%26 or call them at 97 284 185.</t>
+          <t>Dar essadeg is a 4.9-rated lodge located in Tataouine, Tunisia. It offers comfortable accommodations for groups and features various amenities to ensure a pleasant stay. Situated at the coordinates (32.92988, 10.4490705), Dar essadeg is easily accessible and close to local attractions. The lodge is highly recommended by its guests, who praise its cleanliness, comfortable rooms, and friendly staff. With positive reviews, Dar essadeg is a great choice for travelers looking for a comfortable and convenient stay in Tataouine.</t>
         </is>
       </c>
     </row>
@@ -5388,7 +5361,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Tataouineranch located at WFW9+737 Tataouineranch, Tataouine 3234. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes, Chambre d'hotes to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://destinationdahar.com/places/tataouine-les-bains/ or call them at .</t>
+          <t>Tataouineranch is a guesthouse located in Tataouine, Tunisia. It offers a 5-star rating and features a variety of amenities, including a website, phone number, and hours of operation. The ranch is located at coordinates (32.92988, 10.4490705) and offers a variety of activities for guests to enjoy, including horseback riding, hiking, and swimming.</t>
         </is>
       </c>
     </row>
@@ -5491,9 +5464,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a comfortable stay, check out Hotel Belmharem located at Hotel Belmharem, Tataouine. 
-This top-rated destination is perfect for Hotel lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100077652843936%26mibextid%3DZbWKwL or call them at 75 860 104.</t>
+          <t>Hotel Belmharem, situated in Tataouine (coordinates: 32.92988, 10.4490705), is a 5-star hotel that offers a range of luxurious amenities to make your stay memorable. With its central location, the hotel is within easy reach of the city's main attractions. Whether you're traveling for business or leisure, Hotel Belmharem is the perfect choice for a comfortable and enjoyable stay.</t>
         </is>
       </c>
     </row>
@@ -5592,7 +5563,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Tataouineranch located at WFW9+737 Tataouineranch, Tataouine 3234. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes, Chambre d'hotes to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://destinationdahar.com/places/tataouine-les-bains/</t>
+          <t>Tataouineranch, located in Tataouine, Tunisia, is a highly rated 5-star guesthouse offering comfortable accommodation. With two main categories (guesthouse and bed and breakfast), it provides a relaxing atmosphere for travelers. The guesthouse is situated conveniently in the city of Tataouine, making it easily accessible for guests.</t>
         </is>
       </c>
     </row>
@@ -5695,7 +5666,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated Hostel, check out Auberge Alferdaous located at 44 Av. habib bourguiba, Tataouine 3200. With a rating of 4.3, it offers a great experience and has rave reviews for its convenient location in the city center. To get there, use these GPS coordinates: 32.944309666102, 10.453309339046. For more details, visit their website at https://www.hotelstunisian.com/auberge-alferdaous/ or call them at 90 031 690.</t>
+          <t>The Auberge Alferdaous is a 4.3-star hostel located in Tataouine. It offers comfortable accommodations at an affordable price, with amenities such as Wi-Fi, air conditioning, and a restaurant serving delicious local cuisine. The hostel is conveniently located in the city center, making it easy to explore the local attractions. Its friendly staff and cozy atmosphere make it a great choice for travelers looking for a comfortable and budget-friendly stay in Tataouine.</t>
         </is>
       </c>
     </row>
@@ -5798,7 +5769,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a comfortable stay, check out Dar essadeg located at Dar essadeg, P19, Tataouine. This top-rated Lodge is perfect for solo travelers and couples and offers a range of facilities to choose from. With a rating of 4.9, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.booking.com/hotel/tn/dar-essadeg-tataouine12.fr.html%3Faid%3D376366%26label%3Dfr-51aYADzKCvHZ21Orv3nXsASM193330406601:pl:ta:p1:p22.563.000:ac:ap:neg:fi:tikwd-65526620:lp9075940:li:dem:dm:ppccp%3DUmFuZG9tSVYkc2RlIyh9Ye7BFAsTyVd6vvamF_no64o%26sid%3Df5220773e9ac84bf3977577177c6ecd0%26all_sr_blocks%3D831527901_348345905_2_0_0%3Bcheckin%3D2022-06-21%3Bcheckout%3D2022-06-22%3Bdest_id%3D-731465%3Bdest_type%3Dcity%3Bdist%3D0%3Bgroup_adults%3D2%3Bgroup_children%3D0%3Bhapos%3D2%3Bhighlighted_blocks%3D831527901_348345905_2_0_0%3Bhpos%3D2%3Bmatching_block_id%3D831527901_348345905_2_0_0%3Bno_rooms%3D1%3Breq_adults%3D2%3Breq_children%3D0%3Broom1%3DA,A%3Bsb_price_type%3Dtotal%3Bsr_order%3Dpopularity%3Bsr_pri_blocks%3D831527901_348345905_2_0_0__3000%3Bsrepoch%3D1655398898%3Bsrpvid%3D7c9f78185d370021%3Btype%3Dtotal%3Bucfs%3D1%26 or call them at 97 284 185.</t>
+          <t>Dar essadeg is a 4.9-star rated lodge located in Tataouine, Tunisia. It offers group accommodations and is highly reviewed by its guests, receiving 9 reviews and a rating of 4.9 out of 5. Dar essadeg is located at the coordinates (32.92988, 10.4490705).</t>
         </is>
       </c>
     </row>
@@ -5901,9 +5872,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in tataouine, check out Auberge Alferdaous located at 44 Av. habib bourguiba. 
-This top-rated destination is perfect for Hostel lovers and offers a range of Hostel to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 32.944309666102, 10.453309339046. For more details, visit their website at https://www.hotelstunisian.com/auberge-alferdaous/ or call them at 90 031 690.</t>
+          <t>The Auberge Alferdaous is a hostel located in the center of Tataouine. It offers its guests a welcoming atmosphere and affordable prices. The hostel is close to all amenities, making it an ideal base for exploring the city. The hostel's staff is friendly and helpful, and they are always happy to assist guests with their needs. The hostel offers a variety of amenities, including free Wi-Fi, a shared kitchen, and a common area. The hostel also has a rooftop terrace where guests can relax and enjoy the views of the city.</t>
         </is>
       </c>
     </row>
@@ -6002,7 +5971,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great place to stay, check out Tataouineranch located at WFW9+737 Tataouineranch. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of categories to choose from, including Chambre d'hotes. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://destinationdahar.com/places/tataouine-les-bains/.</t>
+          <t>Tataouineranch is a 5-star guest house located in Tataouine, Tunisia. It offers a variety of amenities, including a swimming pool, a garden and a terrace. The guest house is located near the city center and is close to many shops and restaurants. The coordinates of the guest house are (32.92988, 10.4490705).</t>
         </is>
       </c>
     </row>
@@ -6093,9 +6062,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out mhrjn lHwt located at WFV6+6WC mhrjn lHwt.
-This top-rated destination is perfect for Restaurant de fruits de mer lovers and offers a range of Restaurant de fruits de mer to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%87%D8%B1%D8%AC%D8%A7%D9%86+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x1254b726d399998b:0x5a0e5bb07e6085db!8m2!3d32.9430614!4d10.4622509!16s%2Fg%2F11scstvlgg!19sChIJi5mZ0ya3VBIR24VgfrBbDlo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>"mhrjn lHwt", located in Tataouine, at coordinates (32.92988, 10.4490705), is a highly-rated (4.0) seafood restaurant. While it doesn't have an official website or phone number, it is known for serving delicious seafood dishes. With its prime location and positive reviews, "mhrjn lHwt" is a great choice for those seeking a satisfying seafood dining experience in Tataouine.</t>
         </is>
       </c>
     </row>
@@ -6202,9 +6169,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Ksar Ouled Soltane located at Ksar Ouled Soltane, Tataouine. 
-This top-rated destination is perfect for Site historique lovers and offers a range of Site historique, Attraction touristique to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:00-17:00. To get there, use these GPS coordinates: 32.7926647, 10.5187031. For more details, visit their website at https://galaxytours.com/starwars-tunisia-recce-sites/ksar-ouled-soltane/</t>
+          <t>Ksar Ouled Soltane, a historical site and tourist attraction, is located in Tataouine, Tunisia. Built by the Berbers in the 15th century, this fortified granary features multiple stories and is surrounded by two courtyards. The location offers scenic views and is known for its significance in the filming of Star Wars.</t>
         </is>
       </c>
     </row>
@@ -6299,9 +6264,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and looking for something fun to do, check out Ksar Beni Barka located at VCPM+FFR Ksar Beni Barka, Tataouine. 
-This top-rated destination is perfect for Chateau lovers and offers a range of Chateau, Site historique, and Attraction touristique to choose from. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 32.89223, 10.44298.</t>
+          <t>Ksar Beni Barka is a preserved fortified granary located in Tataouine, Tunisia. It offers visitors an immersive experience of local history and culture. Situated at coordinates (32.89223, 10.44298), Ksar Beni Barka is accessible via the provided link. With a rating of 4.6 based on over 40 reviews, it's highly recommended for those interested in exploring historical sites and discovering the region's rich heritage.</t>
         </is>
       </c>
     </row>
@@ -6396,9 +6359,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a spiritual experience, check out La Grande Mosquee located at WFM2+6PQ La Grande Mosquee. 
-This top-rated destination is perfect for Mosquee lovers and offers a range of Mosquee to choose from. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.google.com/maps/place/La+Grande+Mosqu%C3%A9e/data=!4m7!3m6!1s0x1254b7681117065b:0xf2a7a2b30b8a9d37!8m2!3d32.9330782!4d10.4518497!16s%2Fg%2F1hdz8g2b9!19sChIJWwYXEWi3VBIRN52KC7Oip_I?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>La Grande Mosquée is a renowned mosque located in Tataouine, Tunisia. It stands as a prominent religious landmark in the city, offering a serene atmosphere for worship and spiritual connection. The mosque is known for its beautiful architecture and serene ambiance, making it a popular destination for both locals and visitors seeking tranquility.</t>
         </is>
       </c>
     </row>
@@ -6501,9 +6462,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Memoire De La Terre Museum located at WC98+342 Memoire De La Terre Museum, C207, Tataouine. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee, Attraction touristique to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on samedi, dimanche. To get there, use these GPS coordinates: 32.9176017, 10.4151155. For more details, visit their website at https://www.google.com/maps/place/M%C3%A9moire+De+La+Terre+Mus%C3%A9um/data=!4m7!3m6!1s0x1254b98b6fb13de5:0x9a4aa226d9059189!8m2!3d32.9176432!4d10.415266!16s%2Fg%2F11dxdyd6yj!19sChIJ5T2xb4u5VBIRiZEF2SaiSpo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 234 211.</t>
+          <t>Memoire De La Terre Museum is a well-rated attraction with 35 reviews, located in Tataouine at the coordinates (32.9176017, 10.4151155). It falls under the main category of museums and the subcategories of museums and tourist attractions. As of this moment, there is no description available.</t>
         </is>
       </c>
     </row>
@@ -6606,9 +6565,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Chenini Tataouine shnny located at Chenini Tataouine shnny, CHENINI 3274. 
-This top-rated destination is perfect for Attraction touristique lovers and offers a range of categories to choose from, including Attraction touristique, Circuit de randonnee, Site historique. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 08:00-18:00. To get there, use these GPS coordinates: 32.9144479, 10.2795848. For more details, visit their website at https://www.facebook.com/yassinbouchriha%3Fmibextid%3Dvk8aRt.</t>
+          <t>Located in Tataouine, Chenini Tataouine shnny is an enthralling attraction with 4.7 out of 5 rating and 255 reviews. This historical site features a captivating troglodyte village nestled amidst a stunning mountain and desert landscape. As you explore Chenini's ancient mosque and navigate its labyrinthine streets, you'll be immersed in the rich history that envelops this enchanting destination.</t>
         </is>
       </c>
     </row>
@@ -6715,7 +6672,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you visit Tataouine and seek an alluring historical adventure, explore Ksar Ouled Soltane, a fortified granary constructed in the 15th century. Nestled at Ksar Ouled Soltane in Tataouine, this top-rated destination invites history buffs and architecture enthusiasts alike. With an impressive rating of 4.7, it's a must-see attraction, open daily from 9 AM to 5 PM. Coordinates for easy navigation: 32.7926647 latitude and 10.5187031 longitude.</t>
+          <t>**Ksar Ouled Soltane** is an ancient fortified granary located in Tataouine, Tunisia. Its name translates to "Castle of the Sons of Soltane" and it was built by the Berber tribes in the 15th century. Surrounded by 2 courtyards, this 4-story building is a popular tourist attraction and was featured in the 'Star Wars' films as the setting of Luke Skywalker's home. The Ksar offers a unique blend of historical significance and scenic beauty, making it a must-visit destination in Tunisia.</t>
         </is>
       </c>
     </row>
@@ -6810,7 +6767,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Ksar Beni Barka located at VCPM+FFR Ksar Beni Barka. This top-rated destination is perfect for Chateau lovers and offers a range of categories to choose from, including Chateau, Site historique, and Attraction touristique. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 32.89223, 10.44298. For more details, visit their website at https://www.google.com/maps/place/Ksar+Beni+Barka/data=!4m7!3m6!1s0x1254ba73821750f3:0xf17bf3004eb9c0f2!8m2!3d32.8862418!4d10.4336397!16s%2Fg%2F1229cm5q!19sChIJ81AXgnO6VBIR8sC5TgDze_E?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Ksar Beni Barka is a well-preserved fortified granary located at the edge of the village of Tataouine in southern Tunisia. It consists of a series of vaulted underground chambers that were used to store grain and other provisions for the local community. The Ksar was built in the 15th century by the local Berber population and is a UNESCO World Heritage site. It is one of the most important examples of this type of architecture in the country.</t>
         </is>
       </c>
     </row>
@@ -6905,7 +6862,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>In Tataouine, seek serenity at La Grande Mosquee, a top-rated pilgrimage destination. With a rating of 4.7, this sacred landmark at WFM2+6PQ is a must-visit for those seeking spiritual fulfillment. Its awe-inspiring architecture and serene ambiance will captivate all who enter its hallowed halls. For more information, visit their website or contact the owner, La Grande Mosquee at their provided contact details.</t>
+          <t>La Grande Mosquée, a place of worship in Tataouine, Tunisia, is known for its religious significance and architectural beauty. Located at coordinates (32.92988, 10.4490705), it offers a serene atmosphere for spiritual contemplation. With highly rated reviews, this iconic mosque is a must-visit destination for travelers and locals alike.</t>
         </is>
       </c>
     </row>
@@ -6996,8 +6953,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Wed El Kamh. This top-rated destination is perfect for Canal lovers and offers a range of Canal to choose from. With a rating of 4.8, it's a must-visit spot. 
-To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their link at https://www.google.com/maps/place/Wed+El+Kamh/data=!4m7!3m6!1s0x1254b76a597bc929:0x2a60a21cbb178f99!8m2!3d32.9351268!4d10.4563236!16s%2Fg%2F11ckr64kdp!19sChIJKcl7WWq3VBIRmY8XuxyiYCo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Wed El Kamh, located in Tataouine and perched at the coordinates (32.92988, 10.4490705), is a prominent canal with a commendable rating of 4.8.</t>
         </is>
       </c>
     </row>
@@ -7092,10 +7048,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a reliable painter, look no further than CASAPAINT at XF34+8XG P19. 
-This top-rated painter is perfect for any painting needs you may have. 
-With a rating of 5.0, it's a must-visit spot for anyone looking for a quality painter. 
-To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit the link provided.</t>
+          <t>CASAPAINT, located in Tataouine (32.92988, 10.4490705), is a painting company specializing in building painting. With a 5.0 rating, it stands out for its exceptional services and customer satisfaction. The company offers a wide range of painting solutions to meet your building's needs.</t>
         </is>
       </c>
     </row>
@@ -7186,7 +7139,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and looking for an exciting outdoor adventure, head to Jabal Zammur, a breathtaking mountain peak located at the address Jabal Zammur. This top-rated destination is a haven for mountain lovers, offering an unforgettable experience with a rating of 4.0. For more details, visit their website at https://www.google.com/maps/place/Jabal+Zammur/data=!4m7!3m6!1s0x1254b73b4bd0e0d3:0xe715da7c14dc7c4e!8m2!3d32.9236111!4d10.4730556!16s%2Fg%2F11h08cg3v!19sChIJ0-DQSzu3VBIRTnzcFHzaFec?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Jabal Zammur, a majestic mountain peak located in the Tataouine area, offers breathtaking views and challenging hiking trails for outdoor enthusiasts. Situated at latitude 32.92354 and longitude 10.47312, this 4270-meter-high summit is a popular destination for nature lovers and adventure seekers. Its proximity to the city of Tataouine makes it an accessible destination for visitors seeking a blend of natural beauty and cultural exploration.</t>
         </is>
       </c>
     </row>
@@ -7281,7 +7234,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out A7la Ingenierie bacterie located at W97X+35P A7la Ingenierie bacterie, Best Ingenieur fik ya, Tataouine. This top-rated destination is perfect for Discotheque lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 22:00-04:00, but closed on lundi, mardi, mercredi, jeudi, vendredi. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.google.com/maps/place/A7la+Ing%C3%A9nierie+bact%C3%A9rie/data=!4m7!3m6!1s0x1254bb004d435557:0x3276b5bd9420caa4!8m2!3d32.9127144!4d10.3979517!16s%2Fg%2F11vrwt2_k1!19sChIJV1VDTQC7VBIRpMoglL21djI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Located in Tataouine, A7la Ingenieriebacterie is a highly-rated discotheque open from 10 p.m. to 4 a.m. on weekends. This popular nightlife destination is known for its lively atmosphere and attracts a large crowd.</t>
         </is>
       </c>
     </row>
@@ -7384,9 +7337,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a delicious meal, check out Tej Royal located at XF3C+43R Tej Royal, Tataouine. 
-This top-rated restaurant is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-00:30, but closed on []. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website or call them at 75 845 420.</t>
+          <t>Tej Royal is a restaurant located in Tataouine, Tunisia (32.92988, 10.4490705). It has a rating of 4.0 based on 37 reviews. It is open from 08:00 to 00:30 and is closed on no specific days. Tej Royal's main category is Restaurant and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipO8isos2j_yV3FDrBKqBPrf7AwBNDGc1RpKoE4W=w408-h306-k-no.</t>
         </is>
       </c>
     </row>
@@ -7489,7 +7440,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated restaurant, check out Domino located at Avenue habib bourguiba. This popular destination is perfect for restaurant lovers and offers a range of restaurant to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 11:29-14:30, 17:00-23:00, but closed on []. To get there, use these GPS coordinates: 32.944309666102, 10.453309339046. For more details, visit their website or call them at 22 878 553.</t>
+          <t>Domino is a restaurant located at WFR2+QWW Avenue habib bourguiba in Tataouine. It offers pizza and its related menu. Domino has got 4.2 rating with 19 reviews. It is open from 11:29 to 14:30 and from 17:00 to 23:00. It is reachable by phone at 22 878 553.</t>
         </is>
       </c>
     </row>
@@ -7588,9 +7539,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>In tataouine, Bonghnim located at WCHX+M6P Bonghnim, is a top-rated Restaurant with a 4.9 rating. It offers a range of Restaurant categories to choose from. 
-To get there, use these GPS coordinates: 32.92988, 10.4490705. 
-For more details, visit their listing on Google Maps at https://www.google.com/maps/place/Bonghnim/data=!4m7!3m6!1s0x1254b715086daa79:0x5ffe9dd499be2b14!8m2!3d32.9292028!4d10.448085!16s%2Fg%2F11qqyjjgm9!19sChIJeaptCBW3VBIRFCu-mdSd_l8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 75 850 726.</t>
+          <t>Bonghnim is a highly-rated restaurant located at 32.9292028, 10.448085 in Tataouine, Tunisia, offering a 4.9-star dining experience with a focus on ojja.</t>
         </is>
       </c>
     </row>
@@ -7685,8 +7634,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great dining experience, pizzaria la rosa is a top-rated destination that serves Restaurant tunisien cuisine. 
-This must-visit spot with a rating of 4.3 offers a memorable dining experience. It's located in XF28+FF3 pizzaria la rosa, Tataouine and is open during these hours: Not provided. To get to pizzaria la rosa, use these GPS coordinates: 30.7550394, -92.0073482. For more details, visit their website at https://www.google.com/maps/place/pizzaria+la+rosa/data=!4m7!3m6!1s0x1254b78140a569c7:0xbe6b15fef8576f98!8m2!3d32.9511495!4d10.4661646!16s%2Fg%2F11h7_vc4df!19sChIJx2mlQIG3VBIRmG9X-P4Va74?authuser=0&amp;hl=fr&amp;rclk=1 or call them at Not provided.</t>
+          <t>Pizzaria La Rosa is a popular restaurant in Tataouine, Tunisia, known for its delicious Tunisian cuisine. Located at XF28+FF3, it offers a cozy ambiance and a varied menu. With a rating of 4.3 and 10 reviews, this restaurant is a must-visit for those seeking authentic Tunisian flavors.</t>
         </is>
       </c>
     </row>
@@ -7781,7 +7729,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated Pizzeria, check out dr lmlfwf Dar el malfouf located at 44 Av. habib bourguiba. With a rating of 4.4, it's a must-visit spot for Pizzeria lovers. To get there, use these GPS coordinates: 32.944309666102, 10.453309339046</t>
+          <t>Dr Lmlfwf Dar El Malfouf is a pizzeria located in Tataouine, Tunisia. It has a rating of 4.4 out of 5 stars based on 9 reviews. It offers pizza and is located at 44 Av. Habib Bourguiba, Tataouine.</t>
         </is>
       </c>
     </row>
@@ -7884,9 +7832,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Cafe 3S Tataouine located at WFWH+7CJ Cafe 3S Tataouine, Tataouine. 
-This top-rated destination is perfect for Cafe et restaurant de grillades lovers and offers a range of Cafe et restaurant de grillades to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:00-18:00. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website or call them at 95 072 500.</t>
+          <t>Cafe 3S Tataouine is a 4.6-rated cafe and grill restaurant located in Tatauoine, Tunisia. It offers a cozy ambiance with a featured menu of grilled specialties and delicious dishes.</t>
         </is>
       </c>
     </row>
@@ -7989,9 +7935,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great place to grab a bite, check out Patisserie Du Sud Kilani Ounissi located at WCHX+GHM Patisserie Du Sud Kilani Ounissi, Av. habib bourguiba, Tataouine. 
-This local favorite is perfect for Cafeteria lovers and offers a range of delicious options to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-21:00, but closed on . To get there, use these GPS coordinates: 32.944309666102, 10.453309339046. For more details, visit their website at or call them at 53 407 827.</t>
+          <t>Patisserie Du Sud Kilani Ounissi is a highly acclaimed establishment situated in the heart of tataouine. This vibrant cafeteria earns an impressive 4.0 rating, proudly showcasing the reviews of its satisfied customers. The Patisserie Du Sud Kilani Ounissi is renowned for its delectable pastries and sweet treats, tantalizing taste buds with its exquisite flavors. Situated at the convenient coordinates of (32.944309666102, 10.453309339046), this culinary gem warmly welcomes patrons from 08:00 to 21:00 every day, inviting them to indulge in the delightful offerings.</t>
         </is>
       </c>
     </row>
@@ -8090,7 +8034,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Pizzeria Restaurant Dar Dhiafa located at XF86+262 Pizzeria Restaurant Dar Dhiafa, P19, Tataouine. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+Restaurant+Dar+Dhiafa/data=!4m7!3m6!1s0x1254b772319def77:0xce8e2cd4a9298557!8m2!3d32.9650239!4d10.4605025!16s%2Fg%2F11fp4rv4f9!19sChIJd--dMXK3VBIRV4UpqdQsjs4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 193 022.</t>
+          <t>In the heart of Tataouine, Pizzeria Restaurant Dar Dhiafa welcomes you with a menu of pizzas ranging from the classics to the most original, in a cozy and warm setting. Located at the coordinates (32.92988, 10.4490705), it enjoys a central position, making it easy to access.</t>
         </is>
       </c>
     </row>
@@ -8185,11 +8129,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>If you visit Tataouine, Restaurant Margoum located at WCHX+JH5 Restaurant Margoum is worth a try. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.3, it's a must-visit spot. 
-To get there, use these GPS coordinates: 32.92988, 10.4490705. 
-For more details, visit their website at https://www.google.com/maps/place/Restaurant+Margoum/data=!4m7!3m6!1s0x1254b769afd26465:0x99a723ce136bd40e!8m2!3d32.9290219!4d10.448972!16s%2Fg%2F11fwx16pz7!19sChIJZWTSr2m3VBIRDtRrE84jp5k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided number.</t>
+          <t>Restaurant Margoum in Tataouine offers a delightful dining experience. With a 4.3-star rating based on 7 reviews, it is a popular choice among locals and visitors alike. Located at the coordinates (32.92988, 10.4490705), it is easily accessible and well-situated in the city.</t>
         </is>
       </c>
     </row>
@@ -8288,7 +8228,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>If you're in tataouine, be sure to visit Milano Pizza on WFF4+HV3 Unnamed Road. This top-rated Pizzeria has a 5.0 rating and is a favorite among locals. It offers a range of dishes to choose from, so you're sure to find something you'll love. Milano Pizza's hours vary, so it's always best to call ahead or check their website before making a trip. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more information, visit their website or call them at 96 863 604.</t>
+          <t>Milano Pizza, a Pizzeria located in Tataouine (32.92988, 10.4490705), offers delicious pizzas to its customers. With an average rating of 5.0 stars (based on 7 reviews), this place has garnered a good reputation. The owner is Milano Pizza (proprietaire), and the main category is Pizzeria. Milano Pizza's contact information includes a phone number (96 863 604) and an address (WFF4+HV3 Milano Pizza, Unnamed Road).</t>
         </is>
       </c>
     </row>
@@ -8383,7 +8323,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out mT`m kbrn located at XF6F+P8H mT`m kbrn, Tataouine. This top-rated destination is perfect for Restaurant lovers. It has a rating of 4.3 and is a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D9%83%D8%A8%D8%B1%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x1254b70c674cd7f7:0x63cf153b82e97d00!8m2!3d32.9625499!4d10.4742854!16s%2Fg%2F11tjf74qwr!19sChIJ99dMZwy3VBIRAH3pgjsVz2M?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>mT`m kbrn is a Restaurant located in tataouine, Tunisia at longitude 10.4490705 and latitude 32.92988. It received an average rating of 4.3 by 6 reviewers.</t>
         </is>
       </c>
     </row>
@@ -8478,7 +8418,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great place to eat, be sure to check out L'artisto located at WCHX+X22 L'artisto, P19, Tataouine. This top-rated restaurant is perfect for food lovers and offers a range of dishes to choose from. With a rating of 4.2, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/L%27artisto/data=!4m7!3m6!1s0x1254b70114d2bedd:0x966e58e8aff2aa00!8m2!3d32.9298833!4d10.4475194!16s%2Fg%2F11fsk9y6ff!19sChIJ3b7SFAG3VBIRAKryr-hYbpY?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>L'artisto is a restaurant located in Tataouine at the coordinates (32.92988, 10.4490705). It has a rating of 4.2 based on 5 reviews.</t>
         </is>
       </c>
     </row>
@@ -8581,7 +8521,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated Pizzeria, check out IL Maestro pizza located at WFR6+Q9H IL Maestro pizza, Tataouine. With a rating of 5.0 and 5 reviews, it's a must-visit spot for authentic Italian pizzas. It's open 24 hours a day, so you can satisfy your cravings anytime. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, call them at 96 820 225.</t>
+          <t>IL Maestro pizza, located in Tataouine (32.92988, 10.4490705), is a pizzeria highly rated with a 5.0 out of 5. It opens 24 hours a day, providing a convenient dining option for locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -8684,7 +8624,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>If you happen to be in tataouine and looking for a great dining experience, head over to FoodStreet 93 located at WC5F+RX5 FoodStreet 93, Tataouine. This top-rated spot is particularly great for those who enjoy Restaurant cuisine. With a fantastic rating of 5.0, it's definitely a must-visit. Their hours of operation are 10:00-02:00 during the week, but they are closed on unspecified days. For further details, you can visit their website or give them a call at 26 399 255.</t>
+          <t>FoodStreet 93 is a highly-rated restaurant located in Tataouine, Tunisia, with a rating of 5.0 based on 3 reviews. Known for its delicious cuisine, FoodStreet 93 offers a satisfying dining experience with a variety of dishes. Its convenient location makes it easily accessible, and it operates daily from 10:00 AM to 02:00 AM, except for specific closure days that may vary. For further details and reservations, you can contact FoodStreet 93 at +216 26 399 255.</t>
         </is>
       </c>
     </row>
@@ -8787,7 +8727,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great pizza, head to Pizza torino located at WFM2+494 Pizza torino, P19, Tataouine. This top-rated Pizzeria is perfect for pizza lovers and offers a range of pizzas to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-00:00, but closed on . To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website or call them at 50 443 442.</t>
+          <t>Pizza torino is a pizzeria located in Tataouine, Tunisia. It is highly rated with a 5-star rating based on 3 reviews. It offers a wide variety of pizzas and is open daily from 10:00 AM to 12:00 AM. Pizza torino is located at the coordinates (32.92988, 10.4490705).</t>
         </is>
       </c>
     </row>
@@ -8878,9 +8818,7 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out strH@ lnj` located at XF7F+FW strH@ lnj`, Tataouine. 
-This top-rated destination is perfect for Restaurant lovers. With a rating of 4.7, it's a must-visit spot. 
-To get there, use these GPS coordinates: 32.92988, 10.4490705.</t>
+          <t>Located in Tataouine, "strH@ lnj`" is a highly-rated restaurant with a 4.7-star rating. Despite the lack of a website or phone number, the restaurant has received positive reviews from its customers. Located at coordinates (32.92988, 10.4490705), the restaurant's main category is Restaurant.</t>
         </is>
       </c>
     </row>
@@ -8979,7 +8917,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and looking for a top-notch dining experience, head to Prestige, conveniently located on Rue Ahmed Tili in the WCGR+69W area. As a highly-rated restaurant, it's a haven for food enthusiasts, serving delectable cuisines that cater to discerning palates. Prestige is open from 6 AM to 11 PM on weekdays, offering an exceptional gastronomic journey. For further details or reservations, you can call them at 95 833 353.</t>
+          <t>Prestige is a well-rated restaurant located in Tataouine, Tunisia. With a rating of 4.0 out of 5 based on 2 reviews, it serves traditional Tunisian dishes in a casual setting. Located at the coordinates (32.9322232, 10.4599845), Prestige is open from 6:00 AM to 11:00 PM daily.</t>
         </is>
       </c>
     </row>
@@ -9074,7 +9012,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Pizzeria Lela Meriem located at WCHX+HFF Pizzeria Lela Meriem, Av. habib bourguiba, Tataouine. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.944309666102, 10.453309339046. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+Lela+Meriem/data=!4m7!3m6!1s0x1254b7958c738b8d:0xf00c21e811d83efa!8m2!3d32.9290543!4d10.4486404!16s%2Fg%2F11v5tm64rg!19sChIJjYtzjJW3VBIR-j7YEeghDPA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 6270.</t>
+          <t>Pizzeria Lela Meriem is a highly-rated pizzeria with a wide selection of pizzas. It is located in Tataouine, Tunisia at (32.944309666102, 10.453309339046).</t>
         </is>
       </c>
     </row>
@@ -9165,7 +9103,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated Restaurant experience, check out aroma express located at WCHX+J9R aroma express, Av. habib bourguiba, Tataouine. This destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.944309666102, 10.453309339046. For more details, visit their website at https://www.google.com/maps/place/aroma+express/data=!4m7!3m6!1s0x1254b7bade5a8dd5:0x2a5b022c4686c03b!8m2!3d32.9291128!4d10.4483865!16s%2Fg%2F11kvbz1dcc!19sChIJ1Y1a3rq3VBIRO8CGRiwCWyo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Aroma Express** is a restaurant located in Tataouine. It is rated 5.0 stars and offers a wide range of dining options. The restaurant is located at the coordinates (32.944309666102, 10.453309339046) and is easily accessible by car.</t>
         </is>
       </c>
     </row>
@@ -9256,7 +9194,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Ciao Ciao located at WFP2+PMH Ciao Ciao, Av. habib bourguiba, Tataouine. This top-rated destination is perfect for Restauration rapide lovers. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Ciao+Ciao/data=!4m7!3m6!1s0x1254b7c479d550d5:0x8ef35ac71dc0995b!8m2!3d32.9367995!4d10.451769!16s%2Fg%2F11vby7cvsl!19sChIJ1VDVecS3VBIRW5nAHcda844?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Ciao Ciao is a fast-food restaurant located in Tataouine, Tunisia at these coordinates (32.944309666102, 10.453309339046). It has been reviewed only once and has a rating of 5.0. No further details are available about this establishment, such as its menu, hours of operation, or contact information.</t>
         </is>
       </c>
     </row>
@@ -9347,7 +9285,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Restaurant universitaire located at WFXF+FQC Restaurant universitaire, Tataouine. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 48.2685194, 4.0701442.</t>
+          <t>The "Restaurant universitaire" is a restaurant located in Tataouine, Tunisia (lon: 48.2685194, lat: 4.0701442). It has a rating of 5.0, and offers dining services.</t>
         </is>
       </c>
     </row>
@@ -9442,8 +9380,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Pizzaria Soltane located at WCJX+9JC Pizzaria Soltane, P19, Tataouine. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours:  
-For more details, visit their website at  or call them at .</t>
+          <t>Pizzaria Soltane is a highly rated restaurant located in P19, Tataouine, Tunisia. It has an average rating of 5.0 based on one review and offers a variety of dining options. The restaurant is situated at 32.92988 latitude and 10.4490705 longitude, and is part of the main category Restaurant with subcategories including Restaurant. Pizzaria Soltane (proprietaire) is the owner of this establishment and does not have a website or phone number listed. However, it does have a featured image available at https://lh5.googleusercontent.com/p/AF1QipO0zaQdZawCaNwgHm7EJAryA9pwCZ9Nr-gil7cA=w408-h544-k-no.</t>
         </is>
       </c>
     </row>
@@ -9534,7 +9471,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out mshw~ bn `mr located at XF5F+R2 mshw~ bn `mr, Tataouine. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%B4%D9%88%D9%89+%D8%A8%D9%86+%D8%B9%D8%A7%D9%85%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x1254b7562a643033:0x8c7cf918db1d5378!8m2!3d32.9595894!4d10.472615!16s%2Fg%2F11r_nc6y6n!19sChIJMzBkKla3VBIReFMd2xj5fIw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>**mshw~ bn `mr** is a Restaurant located in Tataouine, Tunisia at (32.92988, 10.4490705). Its main category is Restaurant and it has a rating of 4.0 based on 1 reviews.</t>
         </is>
       </c>
     </row>
@@ -9629,9 +9566,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out mT`m lmHT@ located at WFG2+FGG mT`m lmHT@, Tataouine. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, call them at 56 555 600.</t>
+          <t>This fast-food restaurant, located in Tataouine, Tunisia, has been highly-rated by its customers. It is owned by mT`m lmHT@ and has a rating of 5.0 on Google Maps. Despite having only one review, the restaurant has a positive reputation and is known for its delicious food.</t>
         </is>
       </c>
     </row>
@@ -9726,9 +9661,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out bytzry@ lbrk@-Pizzeria Al Baraka located at WFW7+8JH bytzry@ lbrk@-Pizzeria Al Baraka, Tataouine. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705.</t>
+          <t>bytzry@ lbrk@-Pizzeria Al Baraka is a pizzeria located in Tataouine, Tunisia. It has a rating of 5.0 based on 1 review. The pizzeria is located at coordinates (32.92988, 10.4490705) and its link is https://www.google.com/maps/place/%D8%A8%D9%8A%D8%AA%D8%B2%D8%A7%D8%B1%D9%8A%D8%A9+%D8%A7%D9%84%D8%A8%D8%B1%D9%83%D8%A9-Pizzeria+Al+Baraka%E2%80%AD/data=!4m7!3m6!1s0x1254b7d5cf27f415:0x5737759e615787fb!8m2!3d32.945808!4d10.4641167!16s%2Fg%2F11sv_n7t56!19sChIJFfQnz9W3VBIR-4dXYZ51N1c?authuser=0&amp;hl=fr&amp;rclk=1.</t>
         </is>
       </c>
     </row>
@@ -9823,9 +9756,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something related to Service de transport, check out Louaj Mednine Tataouine Station located at 8FVP+6X8 Louaj Mednine Tataouine Station, Medenine. 
-This destination is perfect for Service de transport lovers and is rated 3.0. 
-To get there, use these GPS coordinates: 33.145723231212, 10.893721048872. For more details, visit their website at https://www.google.com/maps/place/Louaj+Mednine+Tataouine+Station/data=!4m7!3m6!1s0x1254d62c2e621bf9:0xf0bff1395789161!8m2!3d33.3430404!4d10.4874393!16s%2Fg%2F11c2qvw_xx!19sChIJ-RtiLizWVBIRYZF4lRP_Cw8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Louaj Mednine Tataouine Station, located in Medenine, Tunisia (GPS coordinates: 33.145723231212, 10.893721048872), provides transportation services to the surrounding areas. With a rating of 3.0 based on 7 reviews, this place offers a convenient solution for travelers seeking to explore the region.</t>
         </is>
       </c>
     </row>
@@ -9916,7 +9847,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>If you're in tataouine and in need of public transportation, check out Station de Bus located at WCHW+PRX Station de Bus, Tataouine. This service has a rating of 3.1 and is a must-visit spot. To get there, use these GPS coordinates: 32.92988, 10.4490705.</t>
+          <t>The bus station in Tataouine, Tunisia is situated at the coordinates (32.92988, 10.4490705) and is highly rated with a score of 3.1 based on 8 reviews. It offers transportation services and is conveniently located in the heart of the city.</t>
         </is>
       </c>
     </row>
@@ -10011,8 +9942,7 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for something fun to do, check out Road transport station located at Road transport station, P19, Tataouine. 
-This top-rated destination  is a must-visit spot with a rating of 4.0 With a rating of . To get there, use these GPS coordinates: 32.92988, 10.4490705.  .</t>
+          <t>Road transport station, located in Tataouine, Tunisia (32.92988, 10.4490705), is a transportation hub that caters to bus travel. Its rating of 4.0 out of 5, based on 8 reviews, indicates a generally positive customer experience. The station is in the Gare routiere category, providing services related to bus transportation. While the station's website and phone number are not readily available, you can find more information through the provided link.</t>
         </is>
       </c>
     </row>
@@ -10115,7 +10045,7 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for reliable transportation, check out Station de transport tataouine (louage) at Road transport station, P19. This top-rated destination is perfect for those needing transportation services and offers a range of options to choose from. With a rating of 3.8, it's a must-visit spot. It's open 24 hours a day, so you can get there whenever it's convenient for you. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website or call them at 75 862 874.</t>
+          <t>Located at the Road transport station in Tataouine, Tunisia, Station de transport tataouine is a transportation service provider that offers louage, a type of shared taxi or van service common in the country. Operating 24 hours a day, they are conveniently accessible at all times.</t>
         </is>
       </c>
     </row>
@@ -10218,7 +10148,7 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a great place to fill up your gas tank, head to Station de transport terrestre Tataouine. Located at Station de transport terrestre Tataouine, Road transport station, P19, Tataouine, this top-rated destination is perfect for gas station lovers and offers a range of services to choose from. With a rating of 4.4, it's a must-visit spot. It's open 24 hours a day, so you can fill up your tank anytime. To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.google.com/maps/place/Station+de+transport+terrestre+Tataouine/data=!4m7!3m6!1s0x1254b7e817043ac7:0x37901109844361f6!8m2!3d32.9480797!4d10.4567169!16s%2Fg%2F11fk55_gqf!19sChIJxzoEF-i3VBIR9mFDhAkRkDc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 75 862 874.</t>
+          <t>The **Tataouine bus** station is located in the city of Tataouine, in southern Tunisia. It is a major stop for both domestic and international travelers, and has a variety of amenities to offer its passengers. The station is located at the coordinates 32.92988, 10.4490705, and has a rating of 4.4 stars out of 5. It is open 24 hours a day and offers a variety of services, including ticket sales, baggage check, and currency exchange.</t>
         </is>
       </c>
     </row>
@@ -10313,10 +10243,7 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>If you're in tataouine and searching for a reliable transportation service, look no further than Local Louage Station, situated at 1934 02 Mars 1943, Tataouine. 
-This highly-rated destination has a 4.5-star rating and provides a range of transportation services. 
-To plan your visit, note that their hours of operation and closure days are not specified. 
-For precise navigation, utilize the GPS coordinates: (32.92988, 10.4490705).</t>
+          <t>The Local Louage Station in Tataouine offers transport services. It is located in tataouine at the coordinates (32.92988, 10.4490705).</t>
         </is>
       </c>
     </row>
@@ -10415,7 +10342,7 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and need reliable transportation, consider Express Transport Tataouine. Located on Av. Habib Bourguiba, they offer quality service for all your transport needs. Their rating of 4.0 shows their commitment to customer satisfaction. They operate from 8:00 AM to 6:00 PM, but are closed on Sundays. For precise directions, use the GPS coordinates: 32.9322232, 10.4599845. Contact them via phone at 98 169 181 if you have any inquiries.</t>
+          <t>Express Transport Tataouine is a transportation service located in Tataouine, Tunisia (coordinates: 32.9322232, 10.4599845). The service provides transportation solutions to clients. The business is closed on Sundays and operates from 08:00-18:00 on other days of the week. Customers can reach out to the transportation service via phone at 98 169 181.</t>
         </is>
       </c>
     </row>
@@ -10506,7 +10433,7 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and looking for a reliable transportation provider, Station Bus SRTM a Tataouine is a top-rated destination. Located at WCHW+MRR Station Bus SRTM a Tataouine, Tataouine, this establishment offers a range of services to meet your needs. With a rating of 2.0, it's a trusted choice among locals and visitors alike. To get more information, visit their website at https://www.google.com/maps/place/Station+Bus+SRTM+%C3%A0+Tataouine/data=!4m7!3m6!1s0x1254b75c4ed8f7d7:0x80b56d5f42499711!8m2!3d32.9292327!4d10.4470083!16s%2Fg%2F11c54fjfgt!19sChIJ1_fYTly3VBIREZdJQl9ttYA?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station Bus SRTM a Tataouine is a bus station located in Tataouine, Tunisia. It is owned by Station Bus SRTM a Tataouine (proprietaire) and offers bus transportation services. The station is located at WCHW+MRR Station Bus SRTM a Tataouine, Tataouine and has a rating of 2.0 out of 5 based on 1 review.</t>
         </is>
       </c>
     </row>
@@ -10597,10 +10524,8 @@
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>If you're in Tataouine and need transportation, check out Chenini Station located at WCHW+4MF Chenini Station, 02 Mars 1943. 
-This top-rated destination is perfect for all your transportation needs. 
-With a rating of 4.0, it's a must-visit spot. 
-Coordinates: 32.9144479, 10.2795848</t>
+          <t>**Chenini Station**
+Chenini Station is a bus and coach transportation company located in Tataouine, Tunisia, at the coordinates (32.9144479, 10.2795848). The station offers transportation services to various destinations, ensuring convenient and reliable travel for its customers.</t>
         </is>
       </c>
     </row>
@@ -10699,10 +10624,7 @@
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>If you're in tataouine and looking for a top-rated Station-service, check out Station tataouine service rapide. 
-This popular destination offers a range of services. 
-With a rating of 5.0, it's a must-visit spot if you need a place like this. 
-To get there, use these GPS coordinates: 32.92988, 10.4490705. For more details, visit their website at https://www.google.com/maps/place/Station+tataouine+service+rapide/data=!4m7!3m6!1s0x1254b7ce772d2fb3:0x978b3a670f918263!8m2!3d32.9474475!4d10.4556547!16s%2Fg%2F11h7_mmvj4!19sChIJsy8td863VBIRY4KRD2c6i5c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 75 862 108.</t>
+          <t>Station tataouine service rapide is a gas station located in Tataouine, Tunisia. It offers a variety of services, including fuel, repairs, and maintenance. The station is located at 32.92988, 10.4490705.</t>
         </is>
       </c>
     </row>
